--- a/docs/bom/GPS-Compass_Arrow_BOM.xlsx
+++ b/docs/bom/GPS-Compass_Arrow_BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MenMe\Documents\GitHub\GPS-Compass\docs\bom\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MenMe\GitHub\GPS-Compass\docs\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{435709B2-3F4E-426B-9E36-84E72FA1DF03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEADF350-7095-45EF-85A0-58AB0F69B1FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{318D0819-0F8D-4535-926A-50240C04F6C9}"/>
+    <workbookView xWindow="28680" yWindow="900" windowWidth="29040" windowHeight="15720" xr2:uid="{318D0819-0F8D-4535-926A-50240C04F6C9}"/>
   </bookViews>
   <sheets>
     <sheet name="GPS-Compass_main" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
   <si>
     <t>Value</t>
   </si>
@@ -143,6 +143,9 @@
   </si>
   <si>
     <t>3 digit, display</t>
+  </si>
+  <si>
+    <t>MAX7219</t>
   </si>
 </sst>
 </file>
@@ -736,49 +739,49 @@
     </xf>
   </cellXfs>
   <cellStyles count="43">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="20 % – Zvýraznění 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20 % – Zvýraznění 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20 % – Zvýraznění 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20 % – Zvýraznění 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20 % – Zvýraznění 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20 % – Zvýraznění 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40 % – Zvýraznění 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40 % – Zvýraznění 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40 % – Zvýraznění 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40 % – Zvýraznění 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40 % – Zvýraznění 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40 % – Zvýraznění 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60 % – Zvýraznění 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60 % – Zvýraznění 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60 % – Zvýraznění 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60 % – Zvýraznění 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60 % – Zvýraznění 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60 % – Zvýraznění 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Celkem" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Hyperlink" xfId="42" xr:uid="{76D8BAD3-8DB4-4D57-868C-52AAB2B9BDF2}"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Kontrolní buňka" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Nadpis 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Nadpis 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Nadpis 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Nadpis 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Název" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Neutrální" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normální" xfId="0" builtinId="0"/>
+    <cellStyle name="Poznámka" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Propojená buňka" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Správně" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Špatně" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Text upozornění" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Vstup" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Výpočet" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Výstup" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Vysvětlující text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Zvýraznění 1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Zvýraznění 2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Zvýraznění 3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Zvýraznění 4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Zvýraznění 5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Zvýraznění 6" xfId="38" builtinId="49" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -794,7 +797,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motiv Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1113,22 +1116,22 @@
   <dimension ref="A1:H89"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="30.88671875" style="8" customWidth="1"/>
-    <col min="3" max="3" width="48.6640625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="30.85546875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="48.7109375" style="8" customWidth="1"/>
     <col min="4" max="4" width="10" style="8" customWidth="1"/>
     <col min="5" max="5" width="35" style="8" customWidth="1"/>
-    <col min="6" max="6" width="32.88671875" style="8" customWidth="1"/>
-    <col min="7" max="7" width="38.88671875" style="8" customWidth="1"/>
-    <col min="8" max="16384" width="8.6640625" style="8"/>
+    <col min="6" max="6" width="32.85546875" style="8" customWidth="1"/>
+    <col min="7" max="7" width="38.85546875" style="8" customWidth="1"/>
+    <col min="8" max="16384" width="8.7109375" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>15</v>
       </c>
@@ -1151,7 +1154,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1172,7 +1175,7 @@
       </c>
       <c r="H2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1193,7 +1196,7 @@
       </c>
       <c r="H3"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1214,7 +1217,7 @@
       </c>
       <c r="H4"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1235,7 +1238,7 @@
       </c>
       <c r="H5"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1256,7 +1259,7 @@
       </c>
       <c r="H6"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1277,7 +1280,7 @@
       </c>
       <c r="H7"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1298,7 +1301,7 @@
       </c>
       <c r="H8"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1319,7 +1322,7 @@
       </c>
       <c r="H9"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1340,7 +1343,7 @@
       </c>
       <c r="H10"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1354,14 +1357,14 @@
         <v>1</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>38</v>
       </c>
       <c r="H11"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12"/>
       <c r="B12"/>
       <c r="C12"/>
@@ -1369,7 +1372,7 @@
       <c r="E12"/>
       <c r="H12"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13"/>
       <c r="B13"/>
       <c r="C13"/>
@@ -1378,7 +1381,7 @@
       <c r="F13" s="6"/>
       <c r="H13"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14"/>
       <c r="B14"/>
       <c r="C14"/>
@@ -1387,7 +1390,7 @@
       <c r="F14" s="6"/>
       <c r="H14"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15"/>
@@ -1396,7 +1399,7 @@
       <c r="F15" s="6"/>
       <c r="H15"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16"/>
       <c r="B16"/>
       <c r="C16"/>
@@ -1405,7 +1408,7 @@
       <c r="F16" s="6"/>
       <c r="H16"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17"/>
       <c r="B17"/>
       <c r="C17"/>
@@ -1414,7 +1417,7 @@
       <c r="F17" s="6"/>
       <c r="H17"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18"/>
       <c r="B18"/>
       <c r="C18"/>
@@ -1423,7 +1426,7 @@
       <c r="F18" s="6"/>
       <c r="H18"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19"/>
       <c r="B19"/>
       <c r="C19"/>
@@ -1432,7 +1435,7 @@
       <c r="F19" s="6"/>
       <c r="H19"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20"/>
@@ -1441,7 +1444,7 @@
       <c r="F20" s="6"/>
       <c r="H20"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21"/>
@@ -1449,7 +1452,7 @@
       <c r="E21"/>
       <c r="H21"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22"/>
@@ -1458,7 +1461,7 @@
       <c r="F22" s="6"/>
       <c r="H22"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
@@ -1466,7 +1469,7 @@
       <c r="E23"/>
       <c r="H23"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24"/>
@@ -1474,7 +1477,7 @@
       <c r="E24"/>
       <c r="H24"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25"/>
@@ -1483,7 +1486,7 @@
       <c r="F25" s="6"/>
       <c r="H25"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26"/>
@@ -1492,7 +1495,7 @@
       <c r="F26" s="12"/>
       <c r="H26"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27"/>
@@ -1501,7 +1504,7 @@
       <c r="F27" s="6"/>
       <c r="H27"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28"/>
       <c r="B28"/>
       <c r="C28"/>
@@ -1509,7 +1512,7 @@
       <c r="E28"/>
       <c r="H28"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29"/>
       <c r="B29"/>
       <c r="C29"/>
@@ -1518,7 +1521,7 @@
       <c r="F29" s="6"/>
       <c r="H29"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30"/>
       <c r="B30"/>
       <c r="C30"/>
@@ -1527,7 +1530,7 @@
       <c r="F30" s="6"/>
       <c r="H30"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31"/>
       <c r="B31"/>
       <c r="C31"/>
@@ -1536,7 +1539,7 @@
       <c r="F31" s="6"/>
       <c r="H31"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32"/>
       <c r="B32"/>
       <c r="C32"/>
@@ -1545,7 +1548,7 @@
       <c r="F32" s="6"/>
       <c r="H32"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33"/>
       <c r="B33"/>
       <c r="C33"/>
@@ -1554,7 +1557,7 @@
       <c r="F33" s="6"/>
       <c r="H33"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34"/>
       <c r="B34"/>
       <c r="C34"/>
@@ -1563,7 +1566,7 @@
       <c r="F34" s="6"/>
       <c r="H34"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35"/>
       <c r="B35"/>
       <c r="C35"/>
@@ -1572,7 +1575,7 @@
       <c r="F35" s="6"/>
       <c r="H35"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36"/>
       <c r="B36"/>
       <c r="C36"/>
@@ -1581,7 +1584,7 @@
       <c r="F36" s="6"/>
       <c r="H36"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37"/>
       <c r="B37"/>
       <c r="C37"/>
@@ -1590,7 +1593,7 @@
       <c r="F37" s="6"/>
       <c r="H37"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38"/>
       <c r="B38"/>
       <c r="C38"/>
@@ -1599,225 +1602,225 @@
       <c r="F38" s="6"/>
       <c r="H38"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39"/>
       <c r="H39"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40"/>
       <c r="H40"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41"/>
       <c r="G41" s="13"/>
       <c r="H41" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42"/>
       <c r="G42" s="13"/>
       <c r="H42"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43"/>
       <c r="G43" s="13"/>
       <c r="H43"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44"/>
       <c r="G44" s="13"/>
       <c r="H44"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45"/>
       <c r="G45" s="13"/>
       <c r="H45" s="10"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46"/>
       <c r="G46" s="13"/>
       <c r="H46" s="10"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47"/>
       <c r="G47" s="13"/>
       <c r="H47"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48"/>
       <c r="G48" s="13"/>
       <c r="H48"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49"/>
       <c r="G49" s="13"/>
       <c r="H49"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50"/>
       <c r="G50" s="13"/>
       <c r="H50"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51"/>
       <c r="H51"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52"/>
       <c r="F52"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53"/>
       <c r="C53"/>
       <c r="E53"/>
       <c r="H53"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C54"/>
       <c r="E54"/>
       <c r="H54"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C55"/>
       <c r="E55"/>
       <c r="H55"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C56"/>
       <c r="E56"/>
       <c r="H56"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C57"/>
       <c r="E57"/>
       <c r="H57"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C58"/>
       <c r="E58"/>
       <c r="H58"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C59"/>
       <c r="E59"/>
       <c r="H59"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C60"/>
       <c r="E60"/>
       <c r="H60"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C61"/>
       <c r="E61"/>
       <c r="H61"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C62"/>
       <c r="E62"/>
       <c r="H62"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C63"/>
       <c r="E63"/>
       <c r="H63"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C64"/>
       <c r="E64"/>
       <c r="H64"/>
     </row>
-    <row r="65" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C65"/>
       <c r="E65"/>
       <c r="H65"/>
     </row>
-    <row r="66" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C66"/>
       <c r="E66"/>
       <c r="H66"/>
     </row>
-    <row r="67" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C67"/>
       <c r="E67"/>
       <c r="H67"/>
     </row>
-    <row r="68" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C68"/>
       <c r="E68"/>
       <c r="H68"/>
     </row>
-    <row r="69" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C69"/>
       <c r="E69"/>
       <c r="H69"/>
     </row>
-    <row r="70" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C70"/>
       <c r="E70"/>
       <c r="H70"/>
     </row>
-    <row r="71" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C71"/>
       <c r="E71"/>
       <c r="H71"/>
     </row>
-    <row r="72" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C72"/>
       <c r="E72"/>
       <c r="H72"/>
     </row>
-    <row r="73" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C73"/>
       <c r="E73"/>
       <c r="H73"/>
     </row>
-    <row r="74" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C74"/>
       <c r="E74"/>
       <c r="H74"/>
     </row>
-    <row r="75" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="3:8" x14ac:dyDescent="0.25">
       <c r="E75" s="6"/>
     </row>
-    <row r="76" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="3:8" x14ac:dyDescent="0.25">
       <c r="E76" s="6"/>
     </row>
-    <row r="77" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="3:8" x14ac:dyDescent="0.25">
       <c r="E77" s="6"/>
     </row>
-    <row r="78" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="3:8" x14ac:dyDescent="0.25">
       <c r="E78" s="6"/>
     </row>
-    <row r="79" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="3:8" x14ac:dyDescent="0.25">
       <c r="E79" s="6"/>
     </row>
-    <row r="80" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="3:8" x14ac:dyDescent="0.25">
       <c r="E80" s="6"/>
     </row>
-    <row r="81" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E81" s="6"/>
     </row>
-    <row r="82" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E82" s="6"/>
     </row>
-    <row r="83" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E83" s="6"/>
     </row>
-    <row r="84" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E84" s="6"/>
     </row>
-    <row r="86" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="5:6" x14ac:dyDescent="0.25">
       <c r="F86" s="9"/>
     </row>
-    <row r="87" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E87" s="10"/>
     </row>
-    <row r="88" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E88" s="10"/>
     </row>
-    <row r="89" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E89" s="6"/>
     </row>
   </sheetData>
